--- a/FinStat_Analysis.xlsx
+++ b/FinStat_Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HP/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HP/Desktop/FinStat-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B98448-94B0-B045-B5BB-DC7FA159C6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0A6ECF-254F-AE4C-A569-9230BF4075CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,18 @@
   </sheets>
   <definedNames>
     <definedName name="Slicer_Year">#N/A</definedName>
+    <definedName name="Slicer_Year1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="8" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -76,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3726" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="75">
   <si>
     <t>Jan</t>
   </si>
@@ -266,16 +269,53 @@
   <si>
     <t>Operating Profits</t>
   </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Sum of Amount</t>
+  </si>
+  <si>
+    <t>Sum of Amount2</t>
+  </si>
+  <si>
+    <t>Geographically</t>
+  </si>
+  <si>
+    <t>Income Sources</t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,8 +361,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,8 +395,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0E62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF194AFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8989BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -376,13 +448,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -465,2184 +546,414 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="559">
+  <dxfs count="107">
     <dxf>
       <font>
-        <name val="Arial"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Avenir Book"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Arial"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Avenir Book"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCC0E62"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -2796,6 +1107,90 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3236,37 +1631,37 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="PivotStyleMedium4 2" table="0" count="13" xr9:uid="{FB926C91-FE76-4EA3-9571-7594AA2C6406}">
-      <tableStyleElement type="wholeTable" dxfId="558"/>
-      <tableStyleElement type="headerRow" dxfId="557"/>
-      <tableStyleElement type="totalRow" dxfId="556"/>
-      <tableStyleElement type="firstRowStripe" dxfId="555"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="554"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="553"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="552"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="551"/>
-      <tableStyleElement type="firstColumnSubheading" dxfId="550"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="549"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="548"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="547"/>
-      <tableStyleElement type="pageFieldValues" dxfId="546"/>
+      <tableStyleElement type="wholeTable" dxfId="106"/>
+      <tableStyleElement type="headerRow" dxfId="105"/>
+      <tableStyleElement type="totalRow" dxfId="104"/>
+      <tableStyleElement type="firstRowStripe" dxfId="103"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="102"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="101"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="100"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="99"/>
+      <tableStyleElement type="firstColumnSubheading" dxfId="98"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="97"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="96"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="95"/>
+      <tableStyleElement type="pageFieldValues" dxfId="94"/>
     </tableStyle>
     <tableStyle name="SlicerStyleDark3 2" pivot="0" table="0" count="10" xr9:uid="{121FABF3-A958-D640-8CBA-0DEC14FEA7B5}">
-      <tableStyleElement type="wholeTable" dxfId="545"/>
-      <tableStyleElement type="headerRow" dxfId="544"/>
+      <tableStyleElement type="wholeTable" dxfId="93"/>
+      <tableStyleElement type="headerRow" dxfId="92"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF8989BC"/>
+      <color rgb="FF194AFE"/>
       <color rgb="FF9BF8F2"/>
       <color rgb="FF100D83"/>
-      <color rgb="FF194AFE"/>
       <color rgb="FFDC25FA"/>
       <color rgb="FFDD115E"/>
       <color rgb="FF070E25"/>
       <color rgb="FFC240D8"/>
       <color rgb="FF9947F7"/>
       <color rgb="FF53595B"/>
-      <color rgb="FF7300FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3539,7 +1934,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Hemin_Dhamelia_Excel_Project_Financial_Statistics_Dashboard_System.xlsx]Pivot_Tables!PivotTable3</c:name>
+    <c:name>[FinStat_Analysis.xlsx]Pivot_Tables!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3753,40 +2148,40 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>64934.67</c:v>
+                  <c:v>84834.150000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58642.049999999996</c:v>
+                  <c:v>69174.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57630.7</c:v>
+                  <c:v>65640.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58950.7</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60548.14</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55608</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57630.7</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60977.822499999995</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59906.11</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66177.665000000008</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62246.084999999992</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57630.7</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3888,40 +2283,40 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>64934.67</c:v>
+                  <c:v>84834.150000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58642.049999999996</c:v>
+                  <c:v>69174.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57630.7</c:v>
+                  <c:v>65640.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58950.7</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60548.14</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55608</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57630.7</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60977.822499999995</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59906.11</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66177.665000000008</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62246.084999999992</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57630.7</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4145,7 +2540,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B2BE105-D1D3-8E46-A036-E6C4DE51DA0A}" type="CELLRANGE">
+                    <a:fld id="{7331DE74-0031-2E4C-9165-AC183FA61B5D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4179,7 +2574,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18D6AACD-214A-3F49-8BF0-1F1C8F811072}" type="CELLRANGE">
+                    <a:fld id="{4C0B3C23-E207-A048-ACEE-0B76A5FFBDCC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4213,7 +2608,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3799F9E4-B11D-DA48-841E-13182BE1707C}" type="CELLRANGE">
+                    <a:fld id="{FB04252B-3229-2E48-BE60-DD5C4401080F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4247,7 +2642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B18C32DF-A03C-C047-98D1-2916754AF3BE}" type="CELLRANGE">
+                    <a:fld id="{4712996E-2DEE-EB48-97F7-97AAACDC28EA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4287,7 +2682,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{633A61DE-DE16-B84C-8271-0BB0D196FA20}" type="CELLRANGE">
+                    <a:fld id="{73EABBFF-647E-C042-866A-E45B4CC58FC3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4320,7 +2715,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61025C6E-A8E9-8F4F-8EB7-FA5C9DF4AB34}" type="CELLRANGE">
+                    <a:fld id="{AD8BAD76-38D9-244A-9603-980ECBA34C1A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4449,22 +2844,22 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>117541.05249999998</c:v>
+                  <c:v>224098.00999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77421.900000000009</c:v>
+                  <c:v>79860</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>157387.38500000001</c:v>
+                  <c:v>154700.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61203.859999999986</c:v>
+                  <c:v>65962.609999999986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130229.14500000003</c:v>
+                  <c:v>126275.04000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>177100</c:v>
+                  <c:v>170716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4477,22 +2872,22 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v> 117,541 </c:v>
+                    <c:v>  </c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v> 77,422 </c:v>
+                    <c:v> 79,860 </c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v> 157,387 </c:v>
+                    <c:v> 154,701 </c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v> 61,204 </c:v>
+                    <c:v> 65,963 </c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v> 130,229 </c:v>
+                    <c:v> 126,275 </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>  </c:v>
+                    <c:v> 170,716 </c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -4589,7 +2984,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8BBAB0A2-EE7F-6D42-A517-B83BA34D899B}" type="CELLRANGE">
+                    <a:fld id="{F4A73113-A6B3-9645-A7E7-0430C04710A5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4623,7 +3018,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DB73A2B-E686-8F42-8ED3-06B60E6412E3}" type="CELLRANGE">
+                    <a:fld id="{B549F67C-041B-044F-B453-6DDF03A2E3D0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4657,7 +3052,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6EAF3DF-7BE7-654F-8325-6626FF52B7EE}" type="CELLRANGE">
+                    <a:fld id="{88AF7A05-0A3F-3F4A-AC55-FB494981F0F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4691,7 +3086,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87B46E9F-8F2D-214A-9DE1-9CEF85C0E79D}" type="CELLRANGE">
+                    <a:fld id="{CF8C3070-B728-0743-A7FA-E2B201CE6935}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4725,7 +3120,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B62F14E6-86BD-F443-9F05-A01E82B481A7}" type="CELLRANGE">
+                    <a:fld id="{21CA5069-55BA-9041-AAD1-754348E18A63}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4759,7 +3154,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{823F5160-0087-0941-8790-C5CDB5683C38}" type="CELLRANGE">
+                    <a:fld id="{0CEC2360-AE17-9C42-B872-9909F4523A84}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4888,7 +3283,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>0</c:v>
+                  <c:v>224098.00999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4903,7 +3298,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>177100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4916,13 +3311,13 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>  </c:v>
+                    <c:v> 224,098 </c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>  </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v> 177,100 </c:v>
+                    <c:v>  </c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -5037,7 +3432,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Hemin_Dhamelia_Excel_Project_Financial_Statistics_Dashboard_System.xlsx]Pivot_Tables!PivotTable3</c:name>
+    <c:name>[FinStat_Analysis.xlsx]Pivot_Tables!PivotTable3</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -5497,40 +3892,40 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>64934.67</c:v>
+                  <c:v>84834.150000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58642.049999999996</c:v>
+                  <c:v>69174.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57630.7</c:v>
+                  <c:v>65640.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58950.7</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60548.14</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55608</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57630.7</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60977.822499999995</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59906.11</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66177.665000000008</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62246.084999999992</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57630.7</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5632,40 +4027,40 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>64934.67</c:v>
+                  <c:v>84834.150000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58642.049999999996</c:v>
+                  <c:v>69174.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57630.7</c:v>
+                  <c:v>65640.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58950.7</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60548.14</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55608</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57630.7</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60977.822499999995</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59906.11</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66177.665000000008</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62246.084999999992</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57630.7</c:v>
+                  <c:v>66884.800000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5827,7 +4222,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Hemin_Dhamelia_Excel_Project_Financial_Statistics_Dashboard_System.xlsx]Pivot_Tables!PivotTable4</c:name>
+    <c:name>[FinStat_Analysis.xlsx]Pivot_Tables!PivotTable4</c:name>
     <c:fmtId val="8"/>
   </c:pivotSource>
   <c:chart>
@@ -6101,40 +4496,40 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>12986.934000000001</c:v>
+                  <c:v>16966.830000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11728.41</c:v>
+                  <c:v>13834.920000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11526.14</c:v>
+                  <c:v>13128.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11790.14</c:v>
+                  <c:v>13376.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12109.628000000001</c:v>
+                  <c:v>13376.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11121.599999999999</c:v>
+                  <c:v>13376.96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11526.14</c:v>
+                  <c:v>13376.96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12195.5645</c:v>
+                  <c:v>13376.96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11981.222000000002</c:v>
+                  <c:v>13376.96</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13235.532999999999</c:v>
+                  <c:v>13376.96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12449.217000000002</c:v>
+                  <c:v>13376.96</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11526.14</c:v>
+                  <c:v>13376.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6416,10 +4811,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.80193337589140468</c:v>
+                  <c:v>0.91398761333274681</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19806662410859532</c:v>
+                  <c:v>8.6012386667253193E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6501,7 +4896,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Hemin_Dhamelia_Excel_Project_Financial_Statistics_Dashboard_System.xlsx]Pivot_Tables!PivotTable5</c:name>
+    <c:name>[FinStat_Analysis.xlsx]Pivot_Tables!PivotTable5</c:name>
     <c:fmtId val="12"/>
   </c:pivotSource>
   <c:chart>
@@ -7099,10 +5494,10 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>459822.86249999999</c:v>
+                  <c:v>493010.04999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>261060.48000000004</c:v>
+                  <c:v>328602.39999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7195,10 +5590,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.63786029637659436</c:v>
+                  <c:v>0.60005182492061793</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36213970362340564</c:v>
+                  <c:v>0.39994817507938202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12101,7 +10496,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>227010</xdr:colOff>
+      <xdr:colOff>226269</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>24892</xdr:rowOff>
     </xdr:to>
@@ -12119,7 +10514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="12700"/>
-          <a:ext cx="17620488" cy="380308"/>
+          <a:ext cx="17483328" cy="385721"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13353,8 +11748,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="29" name="Year">
@@ -13379,7 +11774,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15648,7 +14043,7 @@
                   <a:cs typeface="Arial"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t> 60,074 </a:t>
+                <a:t> 68,468 </a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1000" kern="1200">
                 <a:solidFill>
@@ -16253,7 +14648,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 144,177 </a:t>
+              <a:t> 164,322 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="2400" kern="1200">
               <a:solidFill>
@@ -16640,7 +15035,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 459,823 </a:t>
+              <a:t> 493,010 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="3200" kern="1200">
               <a:solidFill>
@@ -16797,7 +15192,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>63.79%</a:t>
+              <a:t>60.01%</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="3200" kern="1200">
               <a:solidFill>
@@ -17250,7 +15645,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:t> 261,060 </a:t>
+              <a:t> 328,602 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200">
               <a:solidFill>
@@ -17407,7 +15802,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:t>36.21%</a:t>
+              <a:t>39.99%</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200">
               <a:solidFill>
@@ -18028,7 +16423,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>16%</a:t>
+            <a:t>27%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -18178,7 +16573,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>18%</a:t>
+            <a:t>15%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -18478,7 +16873,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>25%</a:t>
+            <a:t>21%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -18628,7 +17023,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>22%</a:t>
+            <a:t>19%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -18778,7 +17173,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>11%</a:t>
+            <a:t>10%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -18875,7 +17270,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 1,225 </a:t>
+              <a:t> 2,440 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
               <a:solidFill>
@@ -19114,7 +17509,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 28,379 </a:t>
+              <a:t> 55,842 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
               <a:solidFill>
@@ -19256,7 +17651,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>4%</a:t>
+            <a:t>7%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -19353,7 +17748,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 31,528 </a:t>
+              <a:t> 54,141 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
               <a:solidFill>
@@ -19495,7 +17890,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>4%</a:t>
+            <a:t>7%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -19592,7 +17987,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 27,919 </a:t>
+              <a:t> 55,838 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
               <a:solidFill>
@@ -19734,7 +18129,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>4%</a:t>
+            <a:t>7%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -19831,7 +18226,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 28,491 </a:t>
+              <a:t> 55,837 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
               <a:solidFill>
@@ -19973,7 +18368,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>4%</a:t>
+            <a:t>7%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -21885,7 +20280,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>8%</a:t>
+            <a:t>7%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -21963,7 +20358,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>10%</a:t>
+            <a:t>9%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -22729,7 +21124,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 58,148 </a:t>
+              <a:t> 55,630 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
               <a:solidFill>
@@ -22890,7 +21285,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 72,081 </a:t>
+              <a:t> 70,645 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
               <a:solidFill>
@@ -23051,7 +21446,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 57,444 </a:t>
+              <a:t> 56,300 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
               <a:solidFill>
@@ -23212,7 +21607,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 1,270 </a:t>
+              <a:t> 3,797 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
               <a:solidFill>
@@ -23354,7 +21749,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>8%</a:t>
+            <a:t>7%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -23514,7 +21909,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 2,490 </a:t>
+              <a:t> 5,866 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
               <a:solidFill>
@@ -23593,7 +21988,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>1%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -23768,7 +22163,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 88,900 </a:t>
+              <a:t> 86,016 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
               <a:solidFill>
@@ -23929,7 +22324,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 88,200 </a:t>
+              <a:t> 84,700 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
               <a:solidFill>
@@ -24071,7 +22466,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>12%</a:t>
+            <a:t>10%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -24149,7 +22544,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>12%</a:t>
+            <a:t>10%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -24324,7 +22719,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 100,400 </a:t>
+              <a:t> 98,400 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
               <a:solidFill>
@@ -24485,7 +22880,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 56,987 </a:t>
+              <a:t> 56,301 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
               <a:solidFill>
@@ -24646,7 +23041,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> 77,422 </a:t>
+              <a:t> 79,860 </a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
               <a:solidFill>
@@ -24787,7 +23182,8 @@
               <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>14%</a:t>
+            <a:pPr algn="ctr"/>
+            <a:t>12%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -24864,7 +23260,8 @@
               <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>8%</a:t>
+            <a:pPr algn="ctr"/>
+            <a:t>7%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -24941,7 +23338,8 @@
               <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>11%</a:t>
+            <a:pPr algn="ctr"/>
+            <a:t>10%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900" b="1" kern="1200">
             <a:solidFill>
@@ -25257,7 +23655,7 @@
                 <a:cs typeface="Arial"/>
               </a:rPr>
               <a:pPr algn="l"/>
-              <a:t>80%</a:t>
+              <a:t>91%</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="3200" b="1" kern="1200">
               <a:solidFill>
@@ -25585,7 +23983,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>284988</xdr:colOff>
+      <xdr:colOff>147828</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>24892</xdr:rowOff>
     </xdr:to>
@@ -25603,7 +24001,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="12700"/>
-          <a:ext cx="17620488" cy="393192"/>
+          <a:ext cx="17483328" cy="393192"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26571,6 +24969,1540 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406399</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="Group 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{521B2D99-DC05-CDEB-7094-E82DEB9EFFDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1139824" y="4343400"/>
+          <a:ext cx="3394075" cy="1765300"/>
+          <a:chOff x="1457325" y="2857500"/>
+          <a:chExt cx="2362200" cy="2349500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="5" name="Group 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0CBE04-3FFE-B73E-D652-544A3374281B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1457325" y="2857500"/>
+            <a:ext cx="2362200" cy="304800"/>
+            <a:chOff x="1460500" y="3009900"/>
+            <a:chExt cx="2362200" cy="304800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="Pivot_Tables!BB5">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D89CD77-7FC7-48E6-02BC-8C5AB7064142}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1460500" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:fld id="{90E0FA2B-2A9E-FF4B-9A6F-F70BF87A8841}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Brazil</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="Pivot_Tables!BC5">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE03A842-9CD3-3143-B3BF-00D1C993B905}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2311400" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:fld id="{EDB5411F-82B0-104F-B517-96713808F2A1}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:pPr marL="0" indent="0"/>
+                <a:t>516888</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="Pivot_Tables!BD5">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B930A36-371C-054C-942A-E905C127F919}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2971800" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:fld id="{CFEE03BD-3977-B04D-B59D-49431EC5EE76}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:pPr marL="0" indent="0"/>
+                <a:t>9.75%</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="Group 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDEEFDD-8461-8449-83BC-7D05B45AD389}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1457325" y="3266440"/>
+            <a:ext cx="2362200" cy="304800"/>
+            <a:chOff x="1460500" y="3009900"/>
+            <a:chExt cx="2362200" cy="304800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="Pivot_Tables!BB6">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EEE5CBC-E35C-5ABA-7B57-DB746663E2BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1460500" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:fld id="{CA860038-CF89-0B43-9F66-6F3FC8E8611B}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Canada</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="Pivot_Tables!BC6">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A231577-E6E2-64F6-742B-9D9E704AF8EA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2311400" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:fld id="{D33E6E7A-60A4-6B46-8DC7-EFCC7B83556D}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>523248</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="Pivot_Tables!BD6">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8E86DA-9831-E11A-4D90-399D587BC264}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2971800" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:fld id="{005F82D1-E945-D14B-A33A-E9F2530513E7}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>9.87%</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="10" name="Group 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEFA1A47-DE8A-0F40-9979-EECCC4712063}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1457325" y="3675380"/>
+            <a:ext cx="2362200" cy="304800"/>
+            <a:chOff x="1460500" y="3009900"/>
+            <a:chExt cx="2362200" cy="304800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="Pivot_Tables!BB7">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60EF27D-6182-73D4-C061-68E343082E6B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1460500" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:fld id="{388CC662-C126-2B42-89B2-A6B026B506A9}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Egypt</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="Pivot_Tables!BC7">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0DDA86-8850-E532-FC30-8E6F6626DF76}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2311400" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:fld id="{67A478E8-0BE2-0840-A2A1-8B20688B5F89}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>1467760</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="Pivot_Tables!BD7">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F535C365-BF17-D1E2-801C-554DACCAB231}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2971800" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:fld id="{66475F78-9918-474A-ADBB-929E1225B944}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>27.69%</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="14" name="Group 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74903B50-CBE1-D348-9E4A-B793D83C28CE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1457325" y="4084320"/>
+            <a:ext cx="2362200" cy="304800"/>
+            <a:chOff x="1460500" y="3009900"/>
+            <a:chExt cx="2362200" cy="304800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="Pivot_Tables!BB8">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C05A1DD-436F-6D79-4D62-D4AAEDBE93D1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1460500" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:fld id="{74B8F108-940B-EE4C-A2C0-BDB64346EF5B}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Russia</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="Pivot_Tables!BC8">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3152EB29-7F47-DF88-F449-699F8D741313}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2311400" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:fld id="{AA9B4BEA-6185-C74C-B079-A9377D530856}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>939036</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="Pivot_Tables!BD8">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073205BF-375F-BF9B-C52A-A5CEC362758C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2971800" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:fld id="{6066AB31-3586-3743-BB8F-06CBCF7F61B0}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>17.71%</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="18" name="Group 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72993E66-7FD6-8D43-B4FF-23B3E937256C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1457325" y="4902200"/>
+            <a:ext cx="2362200" cy="304800"/>
+            <a:chOff x="1460500" y="3009900"/>
+            <a:chExt cx="2362200" cy="304800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="Pivot_Tables!BB10">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEBC192-36A7-42D8-2652-B6908A31D96E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1460500" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:fld id="{4CBFED67-F05C-5B4D-B847-7E257F9CA77E}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>USA</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="Pivot_Tables!BC10">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="TextBox 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3845834A-DA1C-DDBC-4235-A8F92EE95134}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2311400" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:fld id="{149A7018-F4B5-1749-A427-FF1FF9D98B16}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>1061368</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="Pivot_Tables!BD10">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="TextBox 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05865271-DEEC-67D0-E8A6-38E4C9D13EC9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2971800" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:fld id="{704662B2-0DC1-3644-8C1E-74AD6EFFA682}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>20.02%</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="22" name="Group 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17727A26-A849-C34B-8459-E043AF22E56F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1457325" y="4493260"/>
+            <a:ext cx="2362200" cy="304800"/>
+            <a:chOff x="1460500" y="3009900"/>
+            <a:chExt cx="2362200" cy="304800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="Pivot_Tables!BB9">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="TextBox 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8602CA0B-6803-024F-81ED-2D6BCE361323}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1460500" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:fld id="{1669CE04-CC53-F240-BEAC-65EE3EC0CB2D}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>United Kingdom</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="Pivot_Tables!BC9">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="TextBox 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65DFA188-6018-AE59-88D5-2C0ABD3F89D9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2311400" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:fld id="{683F7227-C177-DC45-85EC-99631FC47B29}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>792892</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="Pivot_Tables!BD9">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="TextBox 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F059FE6-24BC-A3FA-A949-338218CF4E2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2971800" y="3009900"/>
+              <a:ext cx="850900" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0"/>
+              <a:fld id="{8B532786-FD13-B449-B7B7-4D66DE7EFF91}" type="TxLink">
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>14.96%</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23EC23C2-2F67-4ACC-FE47-C7B827140C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="977900" y="914400"/>
+          <a:ext cx="2882900" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Financial Statistics</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="Pivot_Tables!BF6">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89EAF35B-6BB2-074D-BDE4-C952C5FFD0D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="1295400"/>
+          <a:ext cx="3073400" cy="812800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{90406AE0-8052-3D4B-94E5-52AA67B98C48}" type="TxLink">
+            <a:rPr lang="en-US" sz="4800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t>$5,301,192</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="4800" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="42" name="Year 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E30ADC3E-E21B-AC4D-B12E-FE817F2DDD68}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Year 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="965200" y="2095501"/>
+              <a:ext cx="2971800" cy="444499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26585,7 +26517,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>284988</xdr:colOff>
+      <xdr:colOff>147828</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>24892</xdr:rowOff>
     </xdr:to>
@@ -26603,7 +26535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="12700"/>
-          <a:ext cx="17620488" cy="393192"/>
+          <a:ext cx="17483328" cy="393192"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27585,7 +27517,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>284988</xdr:colOff>
+      <xdr:colOff>147828</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>24892</xdr:rowOff>
     </xdr:to>
@@ -27603,7 +27535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="12700"/>
-          <a:ext cx="17620488" cy="393192"/>
+          <a:ext cx="17483328" cy="393192"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -28661,6 +28593,77 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="HP" refreshedDate="45712.654646527779" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{2047FCBF-5907-4848-B97A-D2FDD25F8CC0}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Map"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2020" maxValue="2024" count="5">
+        <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
+        <n v="2023"/>
+        <n v="2024"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Country" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Egypt"/>
+        <s v="USA"/>
+        <s v="Russia"/>
+        <s v="United Kingdom"/>
+        <s v="Brazil"/>
+        <s v="Canada"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="62240" maxValue="387584" count="30">
+        <n v="364236"/>
+        <n v="197480"/>
+        <n v="187412"/>
+        <n v="167840"/>
+        <n v="126472"/>
+        <n v="125960"/>
+        <n v="342724"/>
+        <n v="238460"/>
+        <n v="231288"/>
+        <n v="210228"/>
+        <n v="135984"/>
+        <n v="128888"/>
+        <n v="365892"/>
+        <n v="188312"/>
+        <n v="387584"/>
+        <n v="178572"/>
+        <n v="127296"/>
+        <n v="125136"/>
+        <n v="204528"/>
+        <n v="129304"/>
+        <n v="127904"/>
+        <n v="219404"/>
+        <n v="73912"/>
+        <n v="71992"/>
+        <n v="190380"/>
+        <n v="112620"/>
+        <n v="109940"/>
+        <n v="106948"/>
+        <n v="62256"/>
+        <n v="62240"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Target" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="90151.200000000041" maxValue="700000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="706273911"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="900">
   <r>
@@ -38566,177 +38569,274 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="501558.1999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="360897.68000000005"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="227490.12000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="281795.8000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="206264.59999999995"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="202419.35999999975"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="509978.03999999992"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="280188.47999999992"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="209586.52000000019"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="273633.36"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="10"/>
+    <n v="204158.23999999973"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="11"/>
+    <n v="275347.0400000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="524449.6399999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="13"/>
+    <n v="201424.08000000007"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="14"/>
+    <n v="700000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="15"/>
+    <n v="255357.95999999996"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="16"/>
+    <n v="181256.00000000003"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="17"/>
+    <n v="199811.0399999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="18"/>
+    <n v="292475.04000000004"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="19"/>
+    <n v="184904.72"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="20"/>
+    <n v="182902.72000000003"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="21"/>
+    <n v="212626.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="22"/>
+    <n v="130072.80000000012"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="23"/>
+    <n v="104238.15999999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="24"/>
+    <n v="272243.39999999997"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="25"/>
+    <n v="107044.07999999994"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="26"/>
+    <n v="157214.20000000007"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="27"/>
+    <n v="152935.63999999998"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="28"/>
+    <n v="100660.56000000013"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="29"/>
+    <n v="90151.200000000041"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D45AB1CB-378B-BC4F-B874-E4F01C53832E}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="P6:Q7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00C32DC5-A588-1E42-9F2C-E7065EE84B2B}" name="PivotTable7" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="BB4:BD11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
     <pivotField showAll="0">
       <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Income" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Sum of Target Income" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="10">
-    <format dxfId="481">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="480">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="479">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="478">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="477">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="476">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="475">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="474">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="473">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="472">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DDA7805-79B9-9F4D-911F-C6387B5FA509}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="AK6:AM9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="7">
         <item x="4"/>
         <item x="5"/>
         <item x="0"/>
-        <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" numFmtId="1" showAll="0">
+      <items count="31">
+        <item x="29"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="17"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="24"/>
+        <item x="1"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="21"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="8"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -38754,113 +38854,26 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Sum of Income" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Sum of Income2" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Sum of Amount" fld="2" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Sum of Amount2" fld="2" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <formats count="9">
-    <format dxfId="490">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+  <formats count="2">
+    <format dxfId="13">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
     </format>
-    <format dxfId="489">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="488">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="487">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="486">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="485">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="484">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="483">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="482">
-      <pivotArea outline="0" fieldPosition="0">
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
+          <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="6">
-    <chartFormat chart="12" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium4 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -38872,15 +38885,15 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7B2D54F-4C34-CD4E-BE8C-8AE13B6BD348}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7B2D54F-4C34-CD4E-BE8C-8AE13B6BD348}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="AE6:AF19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="6">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item h="1" x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -38972,28 +38985,28 @@
     <dataField name="Sum of operating profit" fld="7" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="498">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="497">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="496">
+    <format dxfId="25">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="495">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="494">
+    <format dxfId="23">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="493">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="492">
+    <format dxfId="21">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="491">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -39020,15 +39033,15 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E9C4F4E-5B00-8D41-B896-7A9FE52AC1A9}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E9C4F4E-5B00-8D41-B896-7A9FE52AC1A9}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="AT6:AV28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="6">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item h="1" x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -39182,31 +39195,31 @@
     <dataField name="Sum of Income2" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="507">
+    <format dxfId="36">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="506">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="505">
+    <format dxfId="34">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="504">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="503">
+    <format dxfId="32">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="502">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="501">
+    <format dxfId="30">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="500">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="499">
+    <format dxfId="28">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -39266,15 +39279,15 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3CCE452-E57A-D44A-BD04-EEB10569FA49}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3CCE452-E57A-D44A-BD04-EEB10569FA49}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C6:F13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="6">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item h="1" x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -39345,26 +39358,26 @@
     <dataField name="Sum of Counts2" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="520">
+    <format dxfId="49">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="519">
+    <format dxfId="48">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="518">
+    <format dxfId="47">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="517">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="516">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="515">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -39373,26 +39386,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="514">
+    <format dxfId="43">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="513">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="512">
+    <format dxfId="41">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="511">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="510">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="509">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -39401,7 +39414,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="508">
+    <format dxfId="37">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -39423,15 +39436,15 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EFD10F9-919C-3B45-8342-1E0C62F73D57}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EFD10F9-919C-3B45-8342-1E0C62F73D57}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="W6:Y19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="6">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item h="1" x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item t="default"/>
@@ -39532,19 +39545,19 @@
     <dataField name="Sum of Income2" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="530">
+    <format dxfId="59">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="529">
+    <format dxfId="58">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="528">
+    <format dxfId="57">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="527">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="526">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -39553,19 +39566,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="525">
+    <format dxfId="54">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="524">
+    <format dxfId="53">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="523">
+    <format dxfId="52">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="522">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="521">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -39608,6 +39621,312 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D45AB1CB-378B-BC4F-B874-E4F01C53832E}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="P6:Q7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="9">
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Income" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Target Income" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="10">
+    <format dxfId="69">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="68">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="67">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="65">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="64">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="62">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DDA7805-79B9-9F4D-911F-C6387B5FA509}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="AK6:AM9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Income" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Income2" fld="5" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="78">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="77">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="76">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="75">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="74">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="73">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="72">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="71">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="70">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="12" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -39704,11 +40023,35 @@
   <data>
     <tabular pivotCacheId="113706907">
       <items count="5">
-        <i x="0"/>
+        <i x="0" s="1"/>
         <i x="1"/>
-        <i x="2" s="1"/>
+        <i x="2"/>
         <i x="3"/>
         <i x="4"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Year1" xr10:uid="{63173438-84FD-0146-BAE7-E5420AA0D739}" sourceName="Year">
+  <pivotTables>
+    <pivotTable tabId="7" name="PivotTable7"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="706273911">
+      <items count="5">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
       </items>
     </tabular>
   </data>
@@ -39726,8 +40069,14 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Year 1" xr10:uid="{A7DB6825-9237-674E-B83E-170A109679E0}" cache="Slicer_Year1" caption="Year" columnCount="5" showCaption="0" style="SlicerStyleDark3 2" rowHeight="274320"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10D28505-F379-4A7E-A508-B65DF599BA8F}" name="Table3" displayName="Table3" ref="A1:I901" totalsRowShown="0" headerRowDxfId="543" dataDxfId="541" headerRowBorderDxfId="542" tableBorderDxfId="540">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10D28505-F379-4A7E-A508-B65DF599BA8F}" name="Table3" displayName="Table3" ref="A1:I901" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88">
   <autoFilter ref="A1:I901" xr:uid="{10D28505-F379-4A7E-A508-B65DF599BA8F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -39743,15 +40092,31 @@
     <sortCondition ref="A2:A901" customList="Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F1B2F5AF-1872-4D88-A8AD-82C5ABEDAC5E}" name="Year" dataDxfId="539"/>
-    <tableColumn id="2" xr3:uid="{A68E4C5E-63A7-44F3-94A9-B3DC035142E3}" name="Month" dataDxfId="538"/>
-    <tableColumn id="3" xr3:uid="{FCFD0908-B2CD-4A82-AD2C-8F47574C7344}" name="Income sources" dataDxfId="537"/>
-    <tableColumn id="4" xr3:uid="{B21922F0-2DEC-409B-A10C-800CA1A1B0C5}" name="Income Breakdowns" dataDxfId="536"/>
-    <tableColumn id="5" xr3:uid="{065303FF-72C4-4F8F-BB0C-F9118DF0DFDF}" name="Counts" dataDxfId="535"/>
-    <tableColumn id="6" xr3:uid="{DABCF258-4449-4DEA-86B9-64B7C52EA6A0}" name="Income" dataDxfId="534"/>
-    <tableColumn id="7" xr3:uid="{21324F5C-E6CA-43C7-8626-2541ACD89257}" name="Target Income" dataDxfId="533"/>
-    <tableColumn id="8" xr3:uid="{A4C67C2A-7CF2-4AF9-8525-5806E64C6993}" name="operating profit" dataDxfId="532"/>
-    <tableColumn id="9" xr3:uid="{C6352437-E1F6-2340-AE38-441D5A24EB63}" name="Marketing Strategies" dataDxfId="531"/>
+    <tableColumn id="1" xr3:uid="{F1B2F5AF-1872-4D88-A8AD-82C5ABEDAC5E}" name="Year" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{A68E4C5E-63A7-44F3-94A9-B3DC035142E3}" name="Month" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{FCFD0908-B2CD-4A82-AD2C-8F47574C7344}" name="Income sources" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{B21922F0-2DEC-409B-A10C-800CA1A1B0C5}" name="Income Breakdowns" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{065303FF-72C4-4F8F-BB0C-F9118DF0DFDF}" name="Counts" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{DABCF258-4449-4DEA-86B9-64B7C52EA6A0}" name="Income" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{21324F5C-E6CA-43C7-8626-2541ACD89257}" name="Target Income" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{A4C67C2A-7CF2-4AF9-8525-5806E64C6993}" name="operating profit" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{C6352437-E1F6-2340-AE38-441D5A24EB63}" name="Marketing Strategies" dataDxfId="79"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{146C9AAE-F0AF-CE43-8978-CB26F02EBC6B}" name="Map" displayName="Map" ref="K1:N31" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="K1:N31" xr:uid="{146C9AAE-F0AF-CE43-8978-CB26F02EBC6B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:N31">
+    <sortCondition ref="K1:K31"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{DD9376A5-C09B-FB4B-9ABB-9FC746AB8D3C}" name="Year" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{0E90738C-65DA-B34A-9D8D-2AEB80C450D8}" name="Country" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{CEC53C98-E640-4E4A-9D0E-D8476C2135C6}" name="Amount" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{CE14689A-9983-534B-826A-031D4961CCB1}" name="Target" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -40023,10 +40388,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:I901"/>
+  <dimension ref="A1:N901"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="K1" sqref="K1:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -40039,10 +40404,15 @@
     <col min="7" max="7" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -40070,8 +40440,20 @@
       <c r="I1" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2020</v>
       </c>
@@ -40099,8 +40481,20 @@
       <c r="I2" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="18">
+        <v>2020</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="32">
+        <v>364236</v>
+      </c>
+      <c r="N2" s="33">
+        <v>501558.1999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
@@ -40128,8 +40522,20 @@
       <c r="I3" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="18">
+        <v>2020</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="32">
+        <v>197480</v>
+      </c>
+      <c r="N3" s="33">
+        <v>360897.68000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -40157,8 +40563,20 @@
       <c r="I4" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="18">
+        <v>2020</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="32">
+        <v>187412</v>
+      </c>
+      <c r="N4" s="33">
+        <v>227490.12000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2020</v>
       </c>
@@ -40186,8 +40604,20 @@
       <c r="I5" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="18">
+        <v>2020</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="32">
+        <v>167840</v>
+      </c>
+      <c r="N5" s="33">
+        <v>281795.8000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2020</v>
       </c>
@@ -40215,8 +40645,20 @@
       <c r="I6" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="18">
+        <v>2020</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="32">
+        <v>126472</v>
+      </c>
+      <c r="N6" s="33">
+        <v>206264.59999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2020</v>
       </c>
@@ -40244,8 +40686,20 @@
       <c r="I7" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="18">
+        <v>2020</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="32">
+        <v>125960</v>
+      </c>
+      <c r="N7" s="33">
+        <v>202419.35999999975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2020</v>
       </c>
@@ -40273,8 +40727,20 @@
       <c r="I8" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="18">
+        <v>2021</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="32">
+        <v>342724</v>
+      </c>
+      <c r="N8" s="33">
+        <v>509978.03999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2020</v>
       </c>
@@ -40302,8 +40768,20 @@
       <c r="I9" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="18">
+        <v>2021</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="32">
+        <v>238460</v>
+      </c>
+      <c r="N9" s="33">
+        <v>280188.47999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2020</v>
       </c>
@@ -40331,8 +40809,20 @@
       <c r="I10" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="18">
+        <v>2021</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="32">
+        <v>231288</v>
+      </c>
+      <c r="N10" s="33">
+        <v>209586.52000000019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2020</v>
       </c>
@@ -40360,8 +40850,20 @@
       <c r="I11" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="18">
+        <v>2021</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="32">
+        <v>210228</v>
+      </c>
+      <c r="N11" s="33">
+        <v>273633.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2020</v>
       </c>
@@ -40389,8 +40891,20 @@
       <c r="I12" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="18">
+        <v>2021</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="32">
+        <v>135984</v>
+      </c>
+      <c r="N12" s="33">
+        <v>204158.23999999973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2020</v>
       </c>
@@ -40418,8 +40932,20 @@
       <c r="I13" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="18">
+        <v>2021</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="32">
+        <v>128888</v>
+      </c>
+      <c r="N13" s="33">
+        <v>275347.0400000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2020</v>
       </c>
@@ -40447,8 +40973,20 @@
       <c r="I14" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="18">
+        <v>2022</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="32">
+        <v>365892</v>
+      </c>
+      <c r="N14" s="33">
+        <v>524449.6399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2020</v>
       </c>
@@ -40476,8 +41014,20 @@
       <c r="I15" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="18">
+        <v>2022</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="32">
+        <v>188312</v>
+      </c>
+      <c r="N15" s="33">
+        <v>201424.08000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2020</v>
       </c>
@@ -40505,8 +41055,20 @@
       <c r="I16" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="18">
+        <v>2022</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="32">
+        <v>387584</v>
+      </c>
+      <c r="N16" s="33">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2020</v>
       </c>
@@ -40534,8 +41096,20 @@
       <c r="I17" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="18">
+        <v>2022</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="32">
+        <v>178572</v>
+      </c>
+      <c r="N17" s="33">
+        <v>255357.95999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2020</v>
       </c>
@@ -40563,8 +41137,20 @@
       <c r="I18" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="18">
+        <v>2022</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="32">
+        <v>127296</v>
+      </c>
+      <c r="N18" s="33">
+        <v>181256.00000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2020</v>
       </c>
@@ -40592,8 +41178,20 @@
       <c r="I19" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="18">
+        <v>2022</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="32">
+        <v>125136</v>
+      </c>
+      <c r="N19" s="33">
+        <v>199811.0399999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2020</v>
       </c>
@@ -40621,8 +41219,20 @@
       <c r="I20" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="18">
+        <v>2023</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="32">
+        <v>204528</v>
+      </c>
+      <c r="N20" s="33">
+        <v>292475.04000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2020</v>
       </c>
@@ -40650,8 +41260,20 @@
       <c r="I21" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="18">
+        <v>2023</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="32">
+        <v>129304</v>
+      </c>
+      <c r="N21" s="33">
+        <v>184904.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2020</v>
       </c>
@@ -40679,8 +41301,20 @@
       <c r="I22" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="18">
+        <v>2023</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="32">
+        <v>127904</v>
+      </c>
+      <c r="N22" s="33">
+        <v>182902.72000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2020</v>
       </c>
@@ -40708,8 +41342,20 @@
       <c r="I23" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="18">
+        <v>2023</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="32">
+        <v>219404</v>
+      </c>
+      <c r="N23" s="33">
+        <v>212626.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2020</v>
       </c>
@@ -40737,8 +41383,20 @@
       <c r="I24" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="18">
+        <v>2023</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="32">
+        <v>73912</v>
+      </c>
+      <c r="N24" s="33">
+        <v>130072.80000000012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2020</v>
       </c>
@@ -40766,8 +41424,20 @@
       <c r="I25" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="18">
+        <v>2023</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" s="32">
+        <v>71992</v>
+      </c>
+      <c r="N25" s="33">
+        <v>104238.15999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2020</v>
       </c>
@@ -40795,8 +41465,20 @@
       <c r="I26" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="18">
+        <v>2024</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="32">
+        <v>190380</v>
+      </c>
+      <c r="N26" s="33">
+        <v>272243.39999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2020</v>
       </c>
@@ -40824,8 +41506,20 @@
       <c r="I27" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="18">
+        <v>2024</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="32">
+        <v>112620</v>
+      </c>
+      <c r="N27" s="33">
+        <v>107044.07999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2020</v>
       </c>
@@ -40853,8 +41547,20 @@
       <c r="I28" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="18">
+        <v>2024</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="32">
+        <v>109940</v>
+      </c>
+      <c r="N28" s="33">
+        <v>157214.20000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2020</v>
       </c>
@@ -40882,8 +41588,20 @@
       <c r="I29" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="18">
+        <v>2024</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" s="32">
+        <v>106948</v>
+      </c>
+      <c r="N29" s="33">
+        <v>152935.63999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2020</v>
       </c>
@@ -40911,8 +41629,20 @@
       <c r="I30" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="18">
+        <v>2024</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M30" s="32">
+        <v>62256</v>
+      </c>
+      <c r="N30" s="33">
+        <v>100660.56000000013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -40940,8 +41670,20 @@
       <c r="I31" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="18">
+        <v>2024</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M31" s="32">
+        <v>62240</v>
+      </c>
+      <c r="N31" s="33">
+        <v>90151.200000000041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2020</v>
       </c>
@@ -66175,8 +66917,9 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -66186,15 +66929,16 @@
   <sheetPr>
     <tabColor rgb="FFFF0025"/>
   </sheetPr>
-  <dimension ref="C6:AZ28"/>
+  <dimension ref="A1:CG28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AZ14" sqref="AZ14"/>
+    <sheetView showGridLines="0" topLeftCell="AZ1" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="BC8" sqref="BC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="14.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="12"/>
     <col min="3" max="3" width="13.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="12" bestFit="1" customWidth="1"/>
@@ -66231,10 +66975,108 @@
     <col min="49" max="49" width="10.83203125" style="12"/>
     <col min="50" max="50" width="22.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="51" max="52" width="11.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="10.83203125" style="12"/>
+    <col min="53" max="53" width="13.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="59" max="84" width="7.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="86" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:85" ht="15" x14ac:dyDescent="0.2">
+      <c r="BB4" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4"/>
+      <c r="BN4"/>
+      <c r="BO4"/>
+      <c r="BP4"/>
+      <c r="BQ4"/>
+      <c r="BR4"/>
+      <c r="BS4"/>
+      <c r="BT4"/>
+      <c r="BU4"/>
+      <c r="BV4"/>
+      <c r="BW4"/>
+      <c r="BX4"/>
+      <c r="BY4"/>
+      <c r="BZ4"/>
+      <c r="CA4"/>
+      <c r="CB4"/>
+      <c r="CC4"/>
+      <c r="CD4"/>
+      <c r="CE4"/>
+      <c r="CF4"/>
+      <c r="CG4"/>
+    </row>
+    <row r="5" spans="1:85" ht="15" x14ac:dyDescent="0.2">
+      <c r="BB5" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC5" s="40">
+        <v>516888</v>
+      </c>
+      <c r="BD5" s="41">
+        <v>9.7504108509935128E-2</v>
+      </c>
+      <c r="BE5"/>
+      <c r="BF5" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+      <c r="BK5"/>
+      <c r="BL5"/>
+      <c r="BM5"/>
+      <c r="BN5"/>
+      <c r="BO5"/>
+      <c r="BP5"/>
+      <c r="BQ5"/>
+      <c r="BR5"/>
+      <c r="BS5"/>
+      <c r="BT5"/>
+      <c r="BU5"/>
+      <c r="BV5"/>
+      <c r="BW5"/>
+      <c r="BX5"/>
+      <c r="BY5"/>
+      <c r="BZ5"/>
+      <c r="CA5"/>
+      <c r="CB5"/>
+      <c r="CC5"/>
+      <c r="CD5"/>
+      <c r="CE5"/>
+      <c r="CF5"/>
+      <c r="CG5"/>
+    </row>
+    <row r="6" spans="1:85" ht="15" x14ac:dyDescent="0.2">
       <c r="C6" s="11" t="s">
         <v>45</v>
       </c>
@@ -66321,13 +67163,54 @@
       <c r="AV6" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="3:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="BB6" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC6" s="40">
+        <v>523248</v>
+      </c>
+      <c r="BD6" s="41">
+        <v>9.8703838683828093E-2</v>
+      </c>
+      <c r="BE6"/>
+      <c r="BF6" s="39">
+        <f>GETPIVOTDATA("Sum of Amount",$BB$4)</f>
+        <v>5301192</v>
+      </c>
+      <c r="BG6"/>
+      <c r="BH6"/>
+      <c r="BI6"/>
+      <c r="BJ6"/>
+      <c r="BK6"/>
+      <c r="BL6"/>
+      <c r="BM6"/>
+      <c r="BN6"/>
+      <c r="BO6"/>
+      <c r="BP6"/>
+      <c r="BQ6"/>
+      <c r="BR6"/>
+      <c r="BS6"/>
+      <c r="BT6"/>
+      <c r="BU6"/>
+      <c r="BV6"/>
+      <c r="BW6"/>
+      <c r="BX6"/>
+      <c r="BY6"/>
+      <c r="BZ6"/>
+      <c r="CA6"/>
+      <c r="CB6"/>
+      <c r="CC6"/>
+      <c r="CD6"/>
+      <c r="CE6"/>
+      <c r="CF6"/>
+      <c r="CG6"/>
+    </row>
+    <row r="7" spans="1:85" ht="15" x14ac:dyDescent="0.2">
       <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="14">
-        <v>117541.05249999998</v>
+        <v>224098.00999999989</v>
       </c>
       <c r="E7" s="14">
         <v>2844</v>
@@ -66346,15 +67229,15 @@
       </c>
       <c r="K7" s="19">
         <f>VLOOKUP(H7,$C$7:$E$12,2,0)</f>
-        <v>117541.05249999998</v>
-      </c>
-      <c r="L7" s="21" t="str">
+        <v>224098.00999999989</v>
+      </c>
+      <c r="L7" s="21">
         <f>IF(K7=MAX($K$7:$K$12),K7,"")</f>
+        <v>224098.00999999989</v>
+      </c>
+      <c r="M7" s="21" t="str">
+        <f>IF(K7=MAX($K$7:$K$12),"",K7)</f>
         <v/>
-      </c>
-      <c r="M7" s="21">
-        <f>IF(K7=MAX($K$7:$K$12),"",K7)</f>
-        <v>117541.05249999998</v>
       </c>
       <c r="N7" s="19">
         <f>VLOOKUP(H7,$C$7:$F$12,3,0)</f>
@@ -66365,91 +67248,129 @@
         <v>2.4272424682085857E-2</v>
       </c>
       <c r="P7" s="14">
-        <v>720883.34249999991</v>
+        <v>821612.45000000019</v>
       </c>
       <c r="Q7" s="14">
-        <v>898931.71199999994</v>
+        <v>898931.71200000006</v>
       </c>
       <c r="R7"/>
       <c r="S7" s="22">
         <f>GETPIVOTDATA("Sum of Income",$P$6)/GETPIVOTDATA("Sum of Target Income",$P$6)</f>
-        <v>0.80193337589140468</v>
+        <v>0.91398761333274681</v>
       </c>
       <c r="T7" s="22">
         <f>100%-S7</f>
-        <v>0.19806662410859532</v>
+        <v>8.6012386667253193E-2</v>
       </c>
       <c r="W7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="X7" s="14">
-        <v>64934.67</v>
+        <v>84834.150000000009</v>
       </c>
       <c r="Y7" s="14">
-        <v>64934.67</v>
+        <v>84834.150000000009</v>
       </c>
       <c r="AB7" s="14">
         <f>IFERROR(AVERAGE(X7:X18),"")</f>
-        <v>60073.611875000002</v>
+        <v>68467.704166666677</v>
       </c>
       <c r="AE7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AF7" s="14">
-        <v>12986.934000000001</v>
+        <v>16966.830000000002</v>
       </c>
       <c r="AG7"/>
       <c r="AH7" s="14">
         <f>IFERROR(GETPIVOTDATA("operating profit",$AE$6),"")</f>
-        <v>144176.66849999997</v>
+        <v>164322.48999999996</v>
       </c>
       <c r="AK7" s="13" t="s">
         <v>40</v>
       </c>
       <c r="AL7" s="14">
-        <v>459822.86249999999</v>
+        <v>493010.04999999993</v>
       </c>
       <c r="AM7" s="15">
-        <v>0.63786029637659436</v>
+        <v>0.60005182492061793</v>
       </c>
       <c r="AO7" s="23" t="s">
         <v>40</v>
       </c>
       <c r="AP7" s="24">
         <f>IFERROR(AL7,"")</f>
-        <v>459822.86249999999</v>
+        <v>493010.04999999993</v>
       </c>
       <c r="AQ7" s="25">
         <f>IFERROR(AM7,"")</f>
-        <v>0.63786029637659436</v>
+        <v>0.60005182492061793</v>
       </c>
       <c r="AT7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="AU7" s="14">
-        <v>117541.05250000002</v>
+        <v>224098.01</v>
       </c>
       <c r="AV7" s="15">
-        <v>0.16305141979334889</v>
+        <v>0.27275391213947647</v>
       </c>
       <c r="AX7" s="27" t="s">
         <v>15</v>
       </c>
       <c r="AY7" s="28">
         <f>VLOOKUP(AX7,$AT:$AV,2,0)</f>
-        <v>117541.05250000002</v>
+        <v>224098.01</v>
       </c>
       <c r="AZ7" s="29">
         <f>VLOOKUP(AX7,$AT:$AV,3,0)</f>
-        <v>0.16305141979334889</v>
-      </c>
-    </row>
-    <row r="8" spans="3:52" ht="15" x14ac:dyDescent="0.2">
+        <v>0.27275391213947647</v>
+      </c>
+      <c r="BB7" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC7" s="40">
+        <v>1467760</v>
+      </c>
+      <c r="BD7" s="41">
+        <v>0.27687357862156287</v>
+      </c>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+      <c r="BM7"/>
+      <c r="BN7"/>
+      <c r="BO7"/>
+      <c r="BP7"/>
+      <c r="BQ7"/>
+      <c r="BR7"/>
+      <c r="BS7"/>
+      <c r="BT7"/>
+      <c r="BU7"/>
+      <c r="BV7"/>
+      <c r="BW7"/>
+      <c r="BX7"/>
+      <c r="BY7"/>
+      <c r="BZ7"/>
+      <c r="CA7"/>
+      <c r="CB7"/>
+      <c r="CC7"/>
+      <c r="CD7"/>
+      <c r="CE7"/>
+      <c r="CF7"/>
+      <c r="CG7"/>
+    </row>
+    <row r="8" spans="1:85" ht="15" x14ac:dyDescent="0.2">
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="14">
-        <v>77421.900000000009</v>
+        <v>79860</v>
       </c>
       <c r="E8" s="14">
         <v>26</v>
@@ -66468,7 +67389,7 @@
       </c>
       <c r="K8" s="19">
         <f t="shared" ref="K8:K12" si="0">VLOOKUP(H8,$C$7:$E$12,2,0)</f>
-        <v>77421.900000000009</v>
+        <v>79860</v>
       </c>
       <c r="L8" s="20" t="str">
         <f t="shared" ref="L8:L12" si="1">IF(K8=MAX($K$7:$K$12),K8,"")</f>
@@ -66476,7 +67397,7 @@
       </c>
       <c r="M8" s="21">
         <f t="shared" ref="M8:M12" si="2">IF(K8=MAX($K$7:$K$12),"",K8)</f>
-        <v>77421.900000000009</v>
+        <v>79860</v>
       </c>
       <c r="N8" s="19">
         <f t="shared" ref="N8:N12" si="3">VLOOKUP(H8,$C$7:$F$12,3,0)</f>
@@ -66493,65 +67414,103 @@
         <v>1</v>
       </c>
       <c r="X8" s="14">
-        <v>58642.049999999996</v>
+        <v>69174.600000000006</v>
       </c>
       <c r="Y8" s="14">
-        <v>58642.049999999996</v>
+        <v>69174.600000000006</v>
       </c>
       <c r="AE8" s="13" t="s">
         <v>1</v>
       </c>
       <c r="AF8" s="14">
-        <v>11728.41</v>
+        <v>13834.920000000002</v>
       </c>
       <c r="AG8"/>
       <c r="AK8" s="13" t="s">
         <v>42</v>
       </c>
       <c r="AL8" s="14">
-        <v>261060.48000000004</v>
+        <v>328602.39999999997</v>
       </c>
       <c r="AM8" s="15">
-        <v>0.36213970362340564</v>
+        <v>0.39994817507938202</v>
       </c>
       <c r="AO8" s="23" t="s">
         <v>42</v>
       </c>
       <c r="AP8" s="24">
         <f>IFERROR(AL8,"")</f>
-        <v>261060.48000000004</v>
+        <v>328602.39999999997</v>
       </c>
       <c r="AQ8" s="25">
         <f>IFERROR(AM8,"")</f>
-        <v>0.36213970362340564</v>
+        <v>0.39994817507938202</v>
       </c>
       <c r="AT8" s="26" t="s">
         <v>25</v>
       </c>
       <c r="AU8" s="14">
-        <v>1225</v>
+        <v>2440</v>
       </c>
       <c r="AV8" s="15">
-        <v>1.6993040729055269E-3</v>
+        <v>2.9697699931397095E-3</v>
       </c>
       <c r="AX8" s="27" t="s">
         <v>25</v>
       </c>
       <c r="AY8" s="28">
         <f t="shared" ref="AY8:AY27" si="5">VLOOKUP(AX8,$AT:$AV,2,0)</f>
-        <v>1225</v>
+        <v>2440</v>
       </c>
       <c r="AZ8" s="29">
         <f t="shared" ref="AZ8:AZ27" si="6">VLOOKUP(AX8,$AT:$AV,3,0)</f>
-        <v>1.6993040729055269E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="3:52" ht="15" x14ac:dyDescent="0.2">
+        <v>2.9697699931397095E-3</v>
+      </c>
+      <c r="BB8" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC8" s="40">
+        <v>939036</v>
+      </c>
+      <c r="BD8" s="41">
+        <v>0.17713676471254011</v>
+      </c>
+      <c r="BE8"/>
+      <c r="BF8"/>
+      <c r="BG8"/>
+      <c r="BH8"/>
+      <c r="BI8"/>
+      <c r="BJ8"/>
+      <c r="BK8"/>
+      <c r="BL8"/>
+      <c r="BM8"/>
+      <c r="BN8"/>
+      <c r="BO8"/>
+      <c r="BP8"/>
+      <c r="BQ8"/>
+      <c r="BR8"/>
+      <c r="BS8"/>
+      <c r="BT8"/>
+      <c r="BU8"/>
+      <c r="BV8"/>
+      <c r="BW8"/>
+      <c r="BX8"/>
+      <c r="BY8"/>
+      <c r="BZ8"/>
+      <c r="CA8"/>
+      <c r="CB8"/>
+      <c r="CC8"/>
+      <c r="CD8"/>
+      <c r="CE8"/>
+      <c r="CF8"/>
+      <c r="CG8"/>
+    </row>
+    <row r="9" spans="1:85" ht="15" x14ac:dyDescent="0.2">
       <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="14">
-        <v>157387.38500000001</v>
+        <v>154700.79</v>
       </c>
       <c r="E9" s="14">
         <v>72768</v>
@@ -66570,7 +67529,7 @@
       </c>
       <c r="K9" s="19">
         <f t="shared" si="0"/>
-        <v>157387.38500000001</v>
+        <v>154700.79</v>
       </c>
       <c r="L9" s="20" t="str">
         <f t="shared" si="1"/>
@@ -66578,7 +67537,7 @@
       </c>
       <c r="M9" s="21">
         <f t="shared" si="2"/>
-        <v>157387.38500000001</v>
+        <v>154700.79</v>
       </c>
       <c r="N9" s="19">
         <f t="shared" si="3"/>
@@ -66595,23 +67554,23 @@
         <v>2</v>
       </c>
       <c r="X9" s="14">
-        <v>57630.7</v>
+        <v>65640.5</v>
       </c>
       <c r="Y9" s="14">
-        <v>57630.7</v>
+        <v>65640.5</v>
       </c>
       <c r="AE9" s="13" t="s">
         <v>2</v>
       </c>
       <c r="AF9" s="14">
-        <v>11526.14</v>
+        <v>13128.1</v>
       </c>
       <c r="AG9"/>
       <c r="AK9" s="13" t="s">
         <v>46</v>
       </c>
       <c r="AL9" s="14">
-        <v>720883.34250000003</v>
+        <v>821612.45</v>
       </c>
       <c r="AM9" s="15">
         <v>1</v>
@@ -66620,29 +67579,67 @@
         <v>26</v>
       </c>
       <c r="AU9" s="14">
-        <v>28378.639999999992</v>
+        <v>55841.839999999989</v>
       </c>
       <c r="AV9" s="15">
-        <v>3.9366480437158929E-2</v>
+        <v>6.7966156062995373E-2</v>
       </c>
       <c r="AX9" s="27" t="s">
         <v>26</v>
       </c>
       <c r="AY9" s="28">
         <f t="shared" si="5"/>
-        <v>28378.639999999992</v>
+        <v>55841.839999999989</v>
       </c>
       <c r="AZ9" s="29">
         <f t="shared" si="6"/>
-        <v>3.9366480437158929E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:52" ht="15" x14ac:dyDescent="0.2">
+        <v>6.7966156062995373E-2</v>
+      </c>
+      <c r="BB9" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC9" s="40">
+        <v>792892</v>
+      </c>
+      <c r="BD9" s="41">
+        <v>0.14956862532049395</v>
+      </c>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+      <c r="BM9"/>
+      <c r="BN9"/>
+      <c r="BO9"/>
+      <c r="BP9"/>
+      <c r="BQ9"/>
+      <c r="BR9"/>
+      <c r="BS9"/>
+      <c r="BT9"/>
+      <c r="BU9"/>
+      <c r="BV9"/>
+      <c r="BW9"/>
+      <c r="BX9"/>
+      <c r="BY9"/>
+      <c r="BZ9"/>
+      <c r="CA9"/>
+      <c r="CB9"/>
+      <c r="CC9"/>
+      <c r="CD9"/>
+      <c r="CE9"/>
+      <c r="CF9"/>
+      <c r="CG9"/>
+    </row>
+    <row r="10" spans="1:85" ht="15" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="14">
-        <v>61203.859999999986</v>
+        <v>65962.609999999986</v>
       </c>
       <c r="E10" s="14">
         <v>16488</v>
@@ -66661,7 +67658,7 @@
       </c>
       <c r="K10" s="19">
         <f t="shared" si="0"/>
-        <v>61203.859999999986</v>
+        <v>65962.609999999986</v>
       </c>
       <c r="L10" s="20" t="str">
         <f t="shared" si="1"/>
@@ -66669,7 +67666,7 @@
       </c>
       <c r="M10" s="21">
         <f t="shared" si="2"/>
-        <v>61203.859999999986</v>
+        <v>65962.609999999986</v>
       </c>
       <c r="N10" s="19">
         <f t="shared" si="3"/>
@@ -66686,16 +67683,16 @@
         <v>3</v>
       </c>
       <c r="X10" s="14">
-        <v>58950.7</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="Y10" s="14">
-        <v>58950.7</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="AE10" s="13" t="s">
         <v>3</v>
       </c>
       <c r="AF10" s="14">
-        <v>11790.14</v>
+        <v>13376.96</v>
       </c>
       <c r="AG10"/>
       <c r="AK10"/>
@@ -66705,29 +67702,67 @@
         <v>24</v>
       </c>
       <c r="AU10" s="14">
-        <v>27919.090000000004</v>
+        <v>55838.180000000008</v>
       </c>
       <c r="AV10" s="15">
-        <v>3.8728998652094671E-2</v>
+        <v>6.7961701408005684E-2</v>
       </c>
       <c r="AX10" s="27" t="s">
         <v>24</v>
       </c>
       <c r="AY10" s="28">
         <f t="shared" si="5"/>
-        <v>27919.090000000004</v>
+        <v>55838.180000000008</v>
       </c>
       <c r="AZ10" s="29">
         <f t="shared" si="6"/>
-        <v>3.8728998652094671E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="3:52" ht="15" x14ac:dyDescent="0.2">
+        <v>6.7961701408005684E-2</v>
+      </c>
+      <c r="BB10" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC10" s="40">
+        <v>1061368</v>
+      </c>
+      <c r="BD10" s="41">
+        <v>0.20021308415163985</v>
+      </c>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+      <c r="BM10"/>
+      <c r="BN10"/>
+      <c r="BO10"/>
+      <c r="BP10"/>
+      <c r="BQ10"/>
+      <c r="BR10"/>
+      <c r="BS10"/>
+      <c r="BT10"/>
+      <c r="BU10"/>
+      <c r="BV10"/>
+      <c r="BW10"/>
+      <c r="BX10"/>
+      <c r="BY10"/>
+      <c r="BZ10"/>
+      <c r="CA10"/>
+      <c r="CB10"/>
+      <c r="CC10"/>
+      <c r="CD10"/>
+      <c r="CE10"/>
+      <c r="CF10"/>
+      <c r="CG10"/>
+    </row>
+    <row r="11" spans="1:85" ht="15" x14ac:dyDescent="0.2">
       <c r="C11" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="14">
-        <v>130229.14500000003</v>
+        <v>126275.04000000004</v>
       </c>
       <c r="E11" s="14">
         <v>13188</v>
@@ -66746,7 +67781,7 @@
       </c>
       <c r="K11" s="19">
         <f t="shared" si="0"/>
-        <v>130229.14500000003</v>
+        <v>126275.04000000004</v>
       </c>
       <c r="L11" s="21" t="str">
         <f t="shared" si="1"/>
@@ -66754,7 +67789,7 @@
       </c>
       <c r="M11" s="21">
         <f t="shared" si="2"/>
-        <v>130229.14500000003</v>
+        <v>126275.04000000004</v>
       </c>
       <c r="N11" s="19">
         <f t="shared" si="3"/>
@@ -66771,16 +67806,16 @@
         <v>4</v>
       </c>
       <c r="X11" s="14">
-        <v>60548.14</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="Y11" s="14">
-        <v>60548.14</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="AE11" s="13" t="s">
         <v>4</v>
       </c>
       <c r="AF11" s="14">
-        <v>12109.628000000001</v>
+        <v>13376.96</v>
       </c>
       <c r="AG11"/>
       <c r="AK11"/>
@@ -66790,29 +67825,67 @@
         <v>27</v>
       </c>
       <c r="AU11" s="14">
-        <v>31527.742500000004</v>
+        <v>54141.030000000013</v>
       </c>
       <c r="AV11" s="15">
-        <v>4.3734874481442192E-2</v>
+        <v>6.589606815232657E-2</v>
       </c>
       <c r="AX11" s="27" t="s">
         <v>27</v>
       </c>
       <c r="AY11" s="28">
         <f t="shared" si="5"/>
-        <v>31527.742500000004</v>
+        <v>54141.030000000013</v>
       </c>
       <c r="AZ11" s="29">
         <f t="shared" si="6"/>
-        <v>4.3734874481442192E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="3:52" ht="15" x14ac:dyDescent="0.2">
+        <v>6.589606815232657E-2</v>
+      </c>
+      <c r="BB11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC11" s="35">
+        <v>5301192</v>
+      </c>
+      <c r="BD11" s="36">
+        <v>1</v>
+      </c>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+      <c r="BL11"/>
+      <c r="BM11"/>
+      <c r="BN11"/>
+      <c r="BO11"/>
+      <c r="BP11"/>
+      <c r="BQ11"/>
+      <c r="BR11"/>
+      <c r="BS11"/>
+      <c r="BT11"/>
+      <c r="BU11"/>
+      <c r="BV11"/>
+      <c r="BW11"/>
+      <c r="BX11"/>
+      <c r="BY11"/>
+      <c r="BZ11"/>
+      <c r="CA11"/>
+      <c r="CB11"/>
+      <c r="CC11"/>
+      <c r="CD11"/>
+      <c r="CE11"/>
+      <c r="CF11"/>
+      <c r="CG11"/>
+    </row>
+    <row r="12" spans="1:85" ht="15" x14ac:dyDescent="0.2">
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="14">
-        <v>177100</v>
+        <v>170716</v>
       </c>
       <c r="E12" s="14">
         <v>11856</v>
@@ -66831,15 +67904,15 @@
       </c>
       <c r="K12" s="19">
         <f t="shared" si="0"/>
-        <v>177100</v>
-      </c>
-      <c r="L12" s="21">
+        <v>170716</v>
+      </c>
+      <c r="L12" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>177100</v>
-      </c>
-      <c r="M12" s="21" t="str">
+        <v/>
+      </c>
+      <c r="M12" s="21">
         <f t="shared" si="2"/>
-        <v/>
+        <v>170716</v>
       </c>
       <c r="N12" s="19">
         <f t="shared" si="3"/>
@@ -66856,16 +67929,16 @@
         <v>5</v>
       </c>
       <c r="X12" s="14">
-        <v>55608</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="Y12" s="14">
-        <v>55608</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="AE12" s="13" t="s">
         <v>5</v>
       </c>
       <c r="AF12" s="14">
-        <v>11121.599999999999</v>
+        <v>13376.96</v>
       </c>
       <c r="AG12"/>
       <c r="AK12"/>
@@ -66875,29 +67948,61 @@
         <v>23</v>
       </c>
       <c r="AU12" s="14">
-        <v>28490.580000000009</v>
+        <v>55836.960000000014</v>
       </c>
       <c r="AV12" s="15">
-        <v>3.9521762149747564E-2</v>
+        <v>6.7960216523009126E-2</v>
       </c>
       <c r="AX12" s="27" t="s">
         <v>23</v>
       </c>
       <c r="AY12" s="28">
         <f t="shared" si="5"/>
-        <v>28490.580000000009</v>
+        <v>55836.960000000014</v>
       </c>
       <c r="AZ12" s="29">
         <f t="shared" si="6"/>
-        <v>3.9521762149747564E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="3:52" ht="15" x14ac:dyDescent="0.2">
+        <v>6.7960216523009126E-2</v>
+      </c>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12"/>
+      <c r="BO12"/>
+      <c r="BP12"/>
+      <c r="BQ12"/>
+      <c r="BR12"/>
+      <c r="BS12"/>
+      <c r="BT12"/>
+      <c r="BU12"/>
+      <c r="BV12"/>
+      <c r="BW12"/>
+      <c r="BX12"/>
+      <c r="BY12"/>
+      <c r="BZ12"/>
+      <c r="CA12"/>
+      <c r="CB12"/>
+      <c r="CC12"/>
+      <c r="CD12"/>
+      <c r="CE12"/>
+      <c r="CF12"/>
+      <c r="CG12"/>
+    </row>
+    <row r="13" spans="1:85" ht="15" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="14">
-        <v>720883.34250000003</v>
+        <v>821612.45</v>
       </c>
       <c r="E13" s="14">
         <v>117170</v>
@@ -66912,16 +68017,16 @@
         <v>6</v>
       </c>
       <c r="X13" s="14">
-        <v>57630.7</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="Y13" s="14">
-        <v>57630.7</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="AE13" s="13" t="s">
         <v>6</v>
       </c>
       <c r="AF13" s="14">
-        <v>11526.14</v>
+        <v>13376.96</v>
       </c>
       <c r="AG13"/>
       <c r="AK13"/>
@@ -66931,38 +68036,41 @@
         <v>32</v>
       </c>
       <c r="AU13" s="14">
-        <v>77421.900000000009</v>
+        <v>79860</v>
       </c>
       <c r="AV13" s="15">
-        <v>0.10739865306292606</v>
+        <v>9.7199111332843105E-2</v>
       </c>
       <c r="AX13" s="27" t="s">
         <v>32</v>
       </c>
       <c r="AY13" s="28">
         <f t="shared" si="5"/>
-        <v>77421.900000000009</v>
+        <v>79860</v>
       </c>
       <c r="AZ13" s="29">
         <f t="shared" si="6"/>
-        <v>0.10739865306292606</v>
-      </c>
-    </row>
-    <row r="14" spans="3:52" ht="15" x14ac:dyDescent="0.2">
+        <v>9.7199111332843105E-2</v>
+      </c>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+    </row>
+    <row r="14" spans="1:85" ht="15" x14ac:dyDescent="0.2">
       <c r="W14" s="13" t="s">
         <v>7</v>
       </c>
       <c r="X14" s="14">
-        <v>60977.822499999995</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="Y14" s="14">
-        <v>60977.822499999995</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="AE14" s="13" t="s">
         <v>7</v>
       </c>
       <c r="AF14" s="14">
-        <v>12195.5645</v>
+        <v>13376.96</v>
       </c>
       <c r="AG14"/>
       <c r="AK14"/>
@@ -66972,38 +68080,41 @@
         <v>32</v>
       </c>
       <c r="AU14" s="14">
-        <v>77421.900000000009</v>
+        <v>79860</v>
       </c>
       <c r="AV14" s="15">
-        <v>0.10739865306292606</v>
+        <v>9.7199111332843105E-2</v>
       </c>
       <c r="AX14" s="27" t="s">
         <v>32</v>
       </c>
       <c r="AY14" s="28">
         <f t="shared" si="5"/>
-        <v>77421.900000000009</v>
+        <v>79860</v>
       </c>
       <c r="AZ14" s="29">
         <f t="shared" si="6"/>
-        <v>0.10739865306292606</v>
-      </c>
-    </row>
-    <row r="15" spans="3:52" ht="15" x14ac:dyDescent="0.2">
+        <v>9.7199111332843105E-2</v>
+      </c>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+    </row>
+    <row r="15" spans="1:85" ht="15" x14ac:dyDescent="0.2">
       <c r="W15" s="13" t="s">
         <v>8</v>
       </c>
       <c r="X15" s="14">
-        <v>59906.11</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="Y15" s="14">
-        <v>59906.11</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="AE15" s="13" t="s">
         <v>8</v>
       </c>
       <c r="AF15" s="14">
-        <v>11981.222000000002</v>
+        <v>13376.96</v>
       </c>
       <c r="AG15"/>
       <c r="AK15"/>
@@ -67013,38 +68124,41 @@
         <v>14</v>
       </c>
       <c r="AU15" s="14">
-        <v>157387.38500000001</v>
+        <v>154700.79</v>
       </c>
       <c r="AV15" s="15">
-        <v>0.21832573416689816</v>
+        <v>0.1882892475643474</v>
       </c>
       <c r="AX15" s="27" t="s">
         <v>14</v>
       </c>
       <c r="AY15" s="28">
         <f t="shared" si="5"/>
-        <v>157387.38500000001</v>
+        <v>154700.79</v>
       </c>
       <c r="AZ15" s="29">
         <f t="shared" si="6"/>
-        <v>0.21832573416689816</v>
-      </c>
-    </row>
-    <row r="16" spans="3:52" ht="15" x14ac:dyDescent="0.2">
+        <v>0.1882892475643474</v>
+      </c>
+      <c r="BB15"/>
+      <c r="BC15"/>
+      <c r="BD15"/>
+    </row>
+    <row r="16" spans="1:85" ht="15" x14ac:dyDescent="0.2">
       <c r="W16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="X16" s="14">
-        <v>66177.665000000008</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="Y16" s="14">
-        <v>66177.665000000008</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="AE16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="AF16" s="14">
-        <v>13235.532999999999</v>
+        <v>13376.96</v>
       </c>
       <c r="AG16"/>
       <c r="AK16"/>
@@ -67054,38 +68168,41 @@
         <v>37</v>
       </c>
       <c r="AU16" s="14">
-        <v>100400</v>
+        <v>98400</v>
       </c>
       <c r="AV16" s="15">
-        <v>0.1392735746283387</v>
+        <v>0.11976449480530631</v>
       </c>
       <c r="AX16" s="27" t="s">
         <v>37</v>
       </c>
       <c r="AY16" s="28">
         <f t="shared" si="5"/>
-        <v>100400</v>
+        <v>98400</v>
       </c>
       <c r="AZ16" s="29">
         <f t="shared" si="6"/>
-        <v>0.1392735746283387</v>
-      </c>
-    </row>
-    <row r="17" spans="23:52" ht="15" x14ac:dyDescent="0.2">
+        <v>0.11976449480530631</v>
+      </c>
+      <c r="BB16"/>
+      <c r="BC16"/>
+      <c r="BD16"/>
+    </row>
+    <row r="17" spans="23:56" ht="15" x14ac:dyDescent="0.2">
       <c r="W17" s="13" t="s">
         <v>10</v>
       </c>
       <c r="X17" s="14">
-        <v>62246.084999999992</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="Y17" s="14">
-        <v>62246.084999999992</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="AE17" s="13" t="s">
         <v>10</v>
       </c>
       <c r="AF17" s="14">
-        <v>12449.217000000002</v>
+        <v>13376.96</v>
       </c>
       <c r="AG17"/>
       <c r="AK17"/>
@@ -67095,38 +68212,41 @@
         <v>36</v>
       </c>
       <c r="AU17" s="14">
-        <v>56987.385000000017</v>
+        <v>56300.790000000015</v>
       </c>
       <c r="AV17" s="15">
-        <v>7.9052159538559472E-2</v>
+        <v>6.8524752759041088E-2</v>
       </c>
       <c r="AX17" s="27" t="s">
         <v>36</v>
       </c>
       <c r="AY17" s="28">
         <f t="shared" si="5"/>
-        <v>56987.385000000017</v>
+        <v>56300.790000000015</v>
       </c>
       <c r="AZ17" s="29">
         <f t="shared" si="6"/>
-        <v>7.9052159538559472E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="23:52" ht="15" x14ac:dyDescent="0.2">
+        <v>6.8524752759041088E-2</v>
+      </c>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+    </row>
+    <row r="18" spans="23:56" ht="15" x14ac:dyDescent="0.2">
       <c r="W18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="X18" s="14">
-        <v>57630.7</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="Y18" s="14">
-        <v>57630.7</v>
+        <v>66884.800000000003</v>
       </c>
       <c r="AE18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="AF18" s="14">
-        <v>11526.14</v>
+        <v>13376.96</v>
       </c>
       <c r="AG18"/>
       <c r="AK18"/>
@@ -67136,38 +68256,41 @@
         <v>13</v>
       </c>
       <c r="AU18" s="14">
-        <v>61203.859999999986</v>
+        <v>65962.609999999986</v>
       </c>
       <c r="AV18" s="15">
-        <v>8.4901198837175215E-2</v>
+        <v>8.0284336002941506E-2</v>
       </c>
       <c r="AX18" s="27" t="s">
         <v>13</v>
       </c>
       <c r="AY18" s="28">
         <f t="shared" si="5"/>
-        <v>61203.859999999986</v>
+        <v>65962.609999999986</v>
       </c>
       <c r="AZ18" s="29">
         <f t="shared" si="6"/>
-        <v>8.4901198837175215E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="23:52" ht="15" x14ac:dyDescent="0.2">
+        <v>8.0284336002941506E-2</v>
+      </c>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+    </row>
+    <row r="19" spans="23:56" ht="15" x14ac:dyDescent="0.2">
       <c r="W19" s="13" t="s">
         <v>46</v>
       </c>
       <c r="X19" s="14">
-        <v>720883.34250000003</v>
+        <v>821612.45000000019</v>
       </c>
       <c r="Y19" s="14">
-        <v>720883.34250000003</v>
+        <v>821612.45000000019</v>
       </c>
       <c r="AE19" s="13" t="s">
         <v>46</v>
       </c>
       <c r="AF19" s="14">
-        <v>144176.66849999997</v>
+        <v>164322.48999999996</v>
       </c>
       <c r="AG19"/>
       <c r="AK19"/>
@@ -67177,24 +68300,27 @@
         <v>35</v>
       </c>
       <c r="AU19" s="14">
-        <v>57443.859999999986</v>
+        <v>56299.559999999983</v>
       </c>
       <c r="AV19" s="15">
-        <v>7.9685375723603971E-2</v>
+        <v>6.8523255702855987E-2</v>
       </c>
       <c r="AX19" s="27" t="s">
         <v>35</v>
       </c>
       <c r="AY19" s="28">
         <f t="shared" si="5"/>
-        <v>57443.859999999986</v>
+        <v>56299.559999999983</v>
       </c>
       <c r="AZ19" s="29">
         <f t="shared" si="6"/>
-        <v>7.9685375723603971E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="23:52" ht="15" x14ac:dyDescent="0.2">
+        <v>6.8523255702855987E-2</v>
+      </c>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+    </row>
+    <row r="20" spans="23:56" ht="15" x14ac:dyDescent="0.2">
       <c r="AK20"/>
       <c r="AL20"/>
       <c r="AM20"/>
@@ -67202,24 +68328,27 @@
         <v>34</v>
       </c>
       <c r="AU20" s="14">
-        <v>2490</v>
+        <v>5866.3</v>
       </c>
       <c r="AV20" s="15">
-        <v>3.4540956257426629E-3</v>
+        <v>7.1399843076866715E-3</v>
       </c>
       <c r="AX20" s="27" t="s">
         <v>34</v>
       </c>
       <c r="AY20" s="28">
         <f t="shared" si="5"/>
-        <v>2490</v>
+        <v>5866.3</v>
       </c>
       <c r="AZ20" s="29">
         <f t="shared" si="6"/>
-        <v>3.4540956257426629E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="23:52" ht="15" x14ac:dyDescent="0.2">
+        <v>7.1399843076866715E-3</v>
+      </c>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+    </row>
+    <row r="21" spans="23:56" ht="15" x14ac:dyDescent="0.2">
       <c r="AK21"/>
       <c r="AL21"/>
       <c r="AM21"/>
@@ -67227,24 +68356,27 @@
         <v>33</v>
       </c>
       <c r="AU21" s="14">
-        <v>1270</v>
+        <v>3796.75</v>
       </c>
       <c r="AV21" s="15">
-        <v>1.761727487828587E-3</v>
+        <v>4.6210959923988493E-3</v>
       </c>
       <c r="AX21" s="27" t="s">
         <v>33</v>
       </c>
       <c r="AY21" s="28">
         <f t="shared" si="5"/>
-        <v>1270</v>
+        <v>3796.75</v>
       </c>
       <c r="AZ21" s="29">
         <f t="shared" si="6"/>
-        <v>1.761727487828587E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="23:52" ht="15" x14ac:dyDescent="0.2">
+        <v>4.6210959923988493E-3</v>
+      </c>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+    </row>
+    <row r="22" spans="23:56" ht="15" x14ac:dyDescent="0.2">
       <c r="AK22"/>
       <c r="AL22"/>
       <c r="AM22"/>
@@ -67252,24 +68384,24 @@
         <v>38</v>
       </c>
       <c r="AU22" s="14">
-        <v>130229.14499999999</v>
+        <v>126275.04</v>
       </c>
       <c r="AV22" s="15">
-        <v>0.1806521767424526</v>
+        <v>0.15369173142398218</v>
       </c>
       <c r="AX22" s="27" t="s">
         <v>38</v>
       </c>
       <c r="AY22" s="28">
         <f t="shared" si="5"/>
-        <v>130229.14499999999</v>
+        <v>126275.04</v>
       </c>
       <c r="AZ22" s="29">
         <f t="shared" si="6"/>
-        <v>0.1806521767424526</v>
-      </c>
-    </row>
-    <row r="23" spans="23:52" ht="15" x14ac:dyDescent="0.2">
+        <v>0.15369173142398218</v>
+      </c>
+    </row>
+    <row r="23" spans="23:56" ht="15" x14ac:dyDescent="0.2">
       <c r="AK23"/>
       <c r="AL23"/>
       <c r="AM23"/>
@@ -67277,117 +68409,117 @@
         <v>31</v>
       </c>
       <c r="AU23" s="14">
-        <v>58148.219999999994</v>
+        <v>55629.989999999991</v>
       </c>
       <c r="AV23" s="15">
-        <v>8.0662454757719687E-2</v>
+        <v>6.7708309434697564E-2</v>
       </c>
       <c r="AX23" s="27" t="s">
         <v>31</v>
       </c>
       <c r="AY23" s="28">
         <f t="shared" si="5"/>
-        <v>58148.219999999994</v>
+        <v>55629.989999999991</v>
       </c>
       <c r="AZ23" s="29">
         <f t="shared" si="6"/>
-        <v>8.0662454757719687E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="23:52" x14ac:dyDescent="0.2">
+        <v>6.7708309434697564E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="23:56" x14ac:dyDescent="0.2">
       <c r="AT24" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AU24" s="14">
-        <v>72080.925000000003</v>
+        <v>70645.05</v>
       </c>
       <c r="AV24" s="15">
-        <v>9.9989721984732924E-2</v>
+        <v>8.5983421989284603E-2</v>
       </c>
       <c r="AX24" s="27" t="s">
         <v>30</v>
       </c>
       <c r="AY24" s="28">
         <f t="shared" si="5"/>
-        <v>72080.925000000003</v>
+        <v>70645.05</v>
       </c>
       <c r="AZ24" s="29">
         <f t="shared" si="6"/>
-        <v>9.9989721984732924E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="23:52" x14ac:dyDescent="0.2">
+        <v>8.5983421989284603E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="23:56" x14ac:dyDescent="0.2">
       <c r="AT25" s="13" t="s">
         <v>12</v>
       </c>
       <c r="AU25" s="14">
-        <v>177100</v>
+        <v>170716</v>
       </c>
       <c r="AV25" s="15">
-        <v>0.24567081739719904</v>
+        <v>0.20778166153640928</v>
       </c>
       <c r="AX25" s="27" t="s">
         <v>12</v>
       </c>
       <c r="AY25" s="28">
         <f t="shared" si="5"/>
-        <v>177100</v>
+        <v>170716</v>
       </c>
       <c r="AZ25" s="29">
         <f t="shared" si="6"/>
-        <v>0.24567081739719904</v>
-      </c>
-    </row>
-    <row r="26" spans="23:52" x14ac:dyDescent="0.2">
+        <v>0.20778166153640928</v>
+      </c>
+    </row>
+    <row r="26" spans="23:56" x14ac:dyDescent="0.2">
       <c r="AT26" s="26" t="s">
         <v>28</v>
       </c>
       <c r="AU26" s="14">
-        <v>88900</v>
+        <v>86016</v>
       </c>
       <c r="AV26" s="15">
-        <v>0.1233209241480011</v>
+        <v>0.10469169497127263</v>
       </c>
       <c r="AX26" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AY26" s="28">
         <f t="shared" si="5"/>
-        <v>88900</v>
+        <v>86016</v>
       </c>
       <c r="AZ26" s="29">
         <f t="shared" si="6"/>
-        <v>0.1233209241480011</v>
-      </c>
-    </row>
-    <row r="27" spans="23:52" x14ac:dyDescent="0.2">
+        <v>0.10469169497127263</v>
+      </c>
+    </row>
+    <row r="27" spans="23:56" x14ac:dyDescent="0.2">
       <c r="AT27" s="26" t="s">
         <v>29</v>
       </c>
       <c r="AU27" s="14">
-        <v>88200</v>
+        <v>84700</v>
       </c>
       <c r="AV27" s="15">
-        <v>0.12234989324919794</v>
+        <v>0.10308996656513664</v>
       </c>
       <c r="AX27" s="27" t="s">
         <v>29</v>
       </c>
       <c r="AY27" s="28">
         <f t="shared" si="5"/>
-        <v>88200</v>
+        <v>84700</v>
       </c>
       <c r="AZ27" s="29">
         <f t="shared" si="6"/>
-        <v>0.12234989324919794</v>
-      </c>
-    </row>
-    <row r="28" spans="23:52" x14ac:dyDescent="0.2">
+        <v>0.10308996656513664</v>
+      </c>
+    </row>
+    <row r="28" spans="23:56" x14ac:dyDescent="0.2">
       <c r="AT28" s="13" t="s">
         <v>46</v>
       </c>
       <c r="AU28" s="14">
-        <v>720883.34250000003</v>
+        <v>821612.45000000007</v>
       </c>
       <c r="AV28" s="15">
         <v>1</v>
@@ -67395,7 +68527,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -67406,7 +68538,7 @@
   </sheetPr>
   <dimension ref="F7:S41"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="68" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -67453,7 +68585,9 @@
   </sheetPr>
   <dimension ref="G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -67466,6 +68600,13 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
